--- a/console/Elastic-Compute/Virtual-Machine/components/checkInput/paramCheckInput.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/checkInput/paramCheckInput.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>tips_one</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,49 @@
       </rPr>
       <t>的字符</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入 xx~xx 的数字</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能少于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter xx-xx digits.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The length shall not be less than xxx characters.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +192,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,9 +220,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,20 +536,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -511,8 +573,14 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -522,8 +590,10 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -533,8 +603,14 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -544,8 +620,16 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
